--- a/Documentação/Planejamentos/Planejamento semanal2.xlsx
+++ b/Documentação/Planejamentos/Planejamento semanal2.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20364"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno\Desktop\Projeto_ProVagas\Documentação\Planejamentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44781915817\Desktop\Projeto_ProVagas\Documentação\Planejamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9AD23FB3-D82E-4A9D-98FF-1CEE013E7A1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69CC54B-3D12-4F09-9B18-5D127E266D0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Semana 0607-1007" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="33">
   <si>
     <t>PLANEJAMENTO SEMANAL - CONTROLE CLASSROOM</t>
   </si>
@@ -110,13 +110,22 @@
   </si>
   <si>
     <t>Continuação da API</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Definição de tarefas</t>
+  </si>
+  <si>
+    <t>Criação da API</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -153,6 +162,13 @@
     </font>
     <font>
       <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
@@ -269,7 +285,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -289,6 +305,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -305,7 +322,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -526,8 +543,8 @@
   </sheetPr>
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -539,46 +556,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="13"/>
+      <c r="B1" s="13"/>
+      <c r="C1" s="13"/>
+      <c r="D1" s="13"/>
+      <c r="E1" s="13"/>
+      <c r="F1" s="13"/>
+      <c r="G1" s="13"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
+      <c r="K1" s="13"/>
+      <c r="L1" s="13"/>
+      <c r="M1" s="13"/>
+      <c r="N1" s="13"/>
+      <c r="O1" s="13"/>
+      <c r="P1" s="13"/>
+      <c r="Q1" s="13"/>
+      <c r="R1" s="13"/>
+      <c r="S1" s="13"/>
+      <c r="T1" s="14"/>
     </row>
     <row r="2" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="13"/>
+      <c r="C2" s="13"/>
+      <c r="D2" s="14"/>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="17"/>
-      <c r="H2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="19"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -593,64 +610,58 @@
       <c r="T2" s="3"/>
     </row>
     <row r="3" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="13"/>
-      <c r="E3" s="14" t="s">
+      <c r="B3" s="13"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="13"/>
-      <c r="I3" s="14" t="s">
+      <c r="F3" s="13"/>
+      <c r="G3" s="13"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="12"/>
-      <c r="K3" s="12"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="14" t="s">
+      <c r="J3" s="13"/>
+      <c r="K3" s="13"/>
+      <c r="L3" s="14"/>
+      <c r="M3" s="15" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="12"/>
-      <c r="O3" s="12"/>
-      <c r="P3" s="13"/>
-      <c r="Q3" s="14" t="s">
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="14"/>
+      <c r="Q3" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="14"/>
     </row>
     <row r="4" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="15"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
-      <c r="E4" s="15"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="15">
-        <v>44020</v>
-      </c>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="13"/>
-      <c r="M4" s="15">
-        <v>44021</v>
-      </c>
-      <c r="N4" s="12"/>
-      <c r="O4" s="12"/>
-      <c r="P4" s="13"/>
-      <c r="Q4" s="15">
-        <v>44022</v>
-      </c>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="13"/>
+      <c r="A4" s="16"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="13"/>
+      <c r="K4" s="13"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="13"/>
+      <c r="O4" s="13"/>
+      <c r="P4" s="14"/>
+      <c r="Q4" s="16"/>
+      <c r="R4" s="13"/>
+      <c r="S4" s="13"/>
+      <c r="T4" s="14"/>
     </row>
     <row r="5" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
@@ -719,36 +730,40 @@
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="D6" s="3"/>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="19" t="s">
+      <c r="F6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="11" t="s">
         <v>25</v>
       </c>
       <c r="H6" s="3"/>
-      <c r="I6" s="19" t="s">
+      <c r="I6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K6" s="6"/>
+      <c r="J6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K6" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="L6" s="3"/>
-      <c r="M6" s="19" t="s">
+      <c r="M6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="N6" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="O6" s="6"/>
+      <c r="N6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O6" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="P6" s="3"/>
-      <c r="Q6" s="19" t="s">
+      <c r="Q6" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="R6" s="19" t="s">
+      <c r="R6" s="11" t="s">
         <v>24</v>
       </c>
       <c r="S6" s="6"/>
@@ -759,36 +774,40 @@
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="D7" s="3"/>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="19" t="s">
+      <c r="F7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G7" s="11" t="s">
         <v>25</v>
       </c>
       <c r="H7" s="3"/>
-      <c r="I7" s="19" t="s">
+      <c r="I7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="J7" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K7" s="6"/>
+      <c r="J7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K7" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="L7" s="3"/>
-      <c r="M7" s="19" t="s">
+      <c r="M7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="N7" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="O7" s="6"/>
+      <c r="N7" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="P7" s="3"/>
-      <c r="Q7" s="19" t="s">
+      <c r="Q7" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="R7" s="19" t="s">
+      <c r="R7" s="11" t="s">
         <v>24</v>
       </c>
       <c r="S7" s="6"/>
@@ -799,36 +818,40 @@
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="19" t="s">
+      <c r="F8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G8" s="11" t="s">
         <v>25</v>
       </c>
       <c r="H8" s="3"/>
-      <c r="I8" s="19" t="s">
+      <c r="I8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K8" s="6"/>
+      <c r="J8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K8" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="L8" s="3"/>
-      <c r="M8" s="19" t="s">
+      <c r="M8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="O8" s="6"/>
+      <c r="N8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O8" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="P8" s="3"/>
-      <c r="Q8" s="19" t="s">
+      <c r="Q8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="R8" s="19" t="s">
+      <c r="R8" s="11" t="s">
         <v>24</v>
       </c>
       <c r="S8" s="6"/>
@@ -839,36 +862,40 @@
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="19" t="s">
+      <c r="E9" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F9" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="G9" s="19" t="s">
+      <c r="F9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="11" t="s">
         <v>27</v>
       </c>
       <c r="H9" s="3"/>
-      <c r="I9" s="19" t="s">
+      <c r="I9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K9" s="6"/>
+      <c r="J9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K9" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="L9" s="3"/>
-      <c r="M9" s="19" t="s">
+      <c r="M9" s="11" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="O9" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="N9" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="O9" s="6"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="19" t="s">
-        <v>29</v>
-      </c>
-      <c r="R9" s="19" t="s">
+      <c r="R9" s="11" t="s">
         <v>24</v>
       </c>
       <c r="S9" s="6"/>
@@ -883,13 +910,15 @@
       <c r="F10" s="6"/>
       <c r="G10" s="6"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="19" t="s">
+      <c r="I10" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="J10" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="19"/>
+      <c r="J10" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="K10" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="L10" s="3"/>
       <c r="M10" s="6"/>
       <c r="N10" s="6"/>
@@ -909,9 +938,15 @@
       <c r="F11" s="6"/>
       <c r="G11" s="6"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
+      <c r="I11" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="J11" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="K11" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="L11" s="3"/>
       <c r="M11" s="6"/>
       <c r="N11" s="6"/>
@@ -1011,35 +1046,45 @@
       <c r="R15" s="9"/>
       <c r="S15" s="9"/>
     </row>
-    <row r="17" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Q16" s="20"/>
+    </row>
+    <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17">
+        <f ca="1">B17:R17</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="10" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="10" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="M22" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="10" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="10"/>
     </row>
-    <row r="26" spans="1:1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="10" t="s">
         <v>20</v>
       </c>

--- a/Documentação/Planejamentos/Planejamento semanal2.xlsx
+++ b/Documentação/Planejamentos/Planejamento semanal2.xlsx
@@ -1,26 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20364"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\44781915817\Desktop\Projeto_ProVagas\Documentação\Planejamentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bruno\Desktop\Projeto_ProVagas\Documentação\Planejamentos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69CC54B-3D12-4F09-9B18-5D127E266D0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A07B2D0B-A630-4478-B871-7178D80C99DE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Semana 0607-1007" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="33">
   <si>
     <t>PLANEJAMENTO SEMANAL - CONTROLE CLASSROOM</t>
   </si>
@@ -306,6 +314,7 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -322,7 +331,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,8 +551,8 @@
   </sheetPr>
   <dimension ref="A1:T26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="N19" sqref="N19"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="S9" sqref="S9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -556,46 +564,46 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
-      <c r="F1" s="13"/>
-      <c r="G1" s="13"/>
-      <c r="H1" s="13"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="13"/>
-      <c r="K1" s="13"/>
-      <c r="L1" s="13"/>
-      <c r="M1" s="13"/>
-      <c r="N1" s="13"/>
-      <c r="O1" s="13"/>
-      <c r="P1" s="13"/>
-      <c r="Q1" s="13"/>
-      <c r="R1" s="13"/>
-      <c r="S1" s="13"/>
-      <c r="T1" s="14"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
+      <c r="F1" s="14"/>
+      <c r="G1" s="14"/>
+      <c r="H1" s="14"/>
+      <c r="I1" s="14"/>
+      <c r="J1" s="14"/>
+      <c r="K1" s="14"/>
+      <c r="L1" s="14"/>
+      <c r="M1" s="14"/>
+      <c r="N1" s="14"/>
+      <c r="O1" s="14"/>
+      <c r="P1" s="14"/>
+      <c r="Q1" s="14"/>
+      <c r="R1" s="14"/>
+      <c r="S1" s="14"/>
+      <c r="T1" s="15"/>
     </row>
     <row r="2" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="13"/>
-      <c r="D2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="15"/>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="18"/>
-      <c r="H2" s="19"/>
+      <c r="G2" s="19"/>
+      <c r="H2" s="20"/>
       <c r="I2" s="2"/>
       <c r="J2" s="2"/>
       <c r="K2" s="2"/>
@@ -610,58 +618,58 @@
       <c r="T2" s="3"/>
     </row>
     <row r="3" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A3" s="15" t="s">
+      <c r="A3" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="13"/>
-      <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="15" t="s">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F3" s="13"/>
-      <c r="G3" s="13"/>
-      <c r="H3" s="14"/>
-      <c r="I3" s="15" t="s">
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="15"/>
+      <c r="I3" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="J3" s="13"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="15" t="s">
+      <c r="J3" s="14"/>
+      <c r="K3" s="14"/>
+      <c r="L3" s="15"/>
+      <c r="M3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="N3" s="13"/>
-      <c r="O3" s="13"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="15" t="s">
+      <c r="N3" s="14"/>
+      <c r="O3" s="14"/>
+      <c r="P3" s="15"/>
+      <c r="Q3" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="R3" s="13"/>
-      <c r="S3" s="13"/>
-      <c r="T3" s="14"/>
+      <c r="R3" s="14"/>
+      <c r="S3" s="14"/>
+      <c r="T3" s="15"/>
     </row>
     <row r="4" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A4" s="16"/>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="14"/>
-      <c r="I4" s="16"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="13"/>
-      <c r="O4" s="13"/>
-      <c r="P4" s="14"/>
-      <c r="Q4" s="16"/>
-      <c r="R4" s="13"/>
-      <c r="S4" s="13"/>
-      <c r="T4" s="14"/>
+      <c r="A4" s="17"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="14"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="15"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="17"/>
+      <c r="N4" s="14"/>
+      <c r="O4" s="14"/>
+      <c r="P4" s="15"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="14"/>
+      <c r="S4" s="14"/>
+      <c r="T4" s="15"/>
     </row>
     <row r="5" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="4" t="s">
@@ -766,7 +774,9 @@
       <c r="R6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="S6" s="6"/>
+      <c r="S6" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="T6" s="3"/>
     </row>
     <row r="7" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
@@ -810,7 +820,9 @@
       <c r="R7" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="S7" s="6"/>
+      <c r="S7" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="T7" s="3"/>
     </row>
     <row r="8" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
@@ -854,7 +866,9 @@
       <c r="R8" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="S8" s="6"/>
+      <c r="S8" s="11" t="s">
+        <v>25</v>
+      </c>
       <c r="T8" s="3"/>
     </row>
     <row r="9" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
@@ -898,7 +912,9 @@
       <c r="R9" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="S9" s="6"/>
+      <c r="S9" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="T9" s="3"/>
     </row>
     <row r="10" spans="1:20" ht="12.75" x14ac:dyDescent="0.2">
@@ -1047,7 +1063,7 @@
       <c r="S15" s="9"/>
     </row>
     <row r="16" spans="1:20" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="Q16" s="20"/>
+      <c r="Q16" s="12"/>
     </row>
     <row r="17" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="10" t="s">
